--- a/Server/db/Npcs.xlsx
+++ b/Server/db/Npcs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npcs_Init.csv" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -177,164 +177,11 @@
   <si>
     <t>profession</t>
   </si>
-  <si>
-    <t>axe</t>
-  </si>
-  <si>
-    <t>dagger</t>
-  </si>
-  <si>
-    <t>unarmed</t>
-  </si>
-  <si>
-    <t>hammer</t>
-  </si>
-  <si>
-    <t>polearm</t>
-  </si>
-  <si>
-    <t>spear</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>archery</t>
-  </si>
-  <si>
-    <t>crossbow</t>
-  </si>
-  <si>
-    <t>sling</t>
-  </si>
-  <si>
-    <t>thrown</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>dualweapon</t>
-  </si>
-  <si>
-    <t>shield</t>
-  </si>
-  <si>
-    <t>bardic</t>
-  </si>
-  <si>
-    <t>conjuring</t>
-  </si>
-  <si>
-    <t>druidic</t>
-  </si>
-  <si>
-    <t>illusion</t>
-  </si>
-  <si>
-    <t>necromancy</t>
-  </si>
-  <si>
-    <t>sorcery</t>
-  </si>
-  <si>
-    <t>shamanic</t>
-  </si>
-  <si>
-    <t>spellcraft</t>
-  </si>
-  <si>
-    <t>summoning</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t>armorsmithing</t>
-  </si>
-  <si>
-    <t>tailoring</t>
-  </si>
-  <si>
-    <t>fletching</t>
-  </si>
-  <si>
-    <t>weaponsmithing</t>
-  </si>
-  <si>
-    <t>alchemy</t>
-  </si>
-  <si>
-    <t>lapidary</t>
-  </si>
-  <si>
-    <t>calligraphy</t>
-  </si>
-  <si>
-    <t>enchanting</t>
-  </si>
-  <si>
-    <t>herbalism</t>
-  </si>
-  <si>
-    <t>hunting</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>bargaining</t>
-  </si>
-  <si>
-    <t>camping</t>
-  </si>
-  <si>
-    <t>firstaid</t>
-  </si>
-  <si>
-    <t>lore</t>
-  </si>
-  <si>
-    <t>picklocks</t>
-  </si>
-  <si>
-    <t>scouting</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>stealth</t>
-  </si>
-  <si>
-    <t>traps</t>
-  </si>
-  <si>
-    <t>aeolandis</t>
-  </si>
-  <si>
-    <t>hieroform</t>
-  </si>
-  <si>
-    <t>highgundis</t>
-  </si>
-  <si>
-    <t>oldpraxic</t>
-  </si>
-  <si>
-    <t>praxic</t>
-  </si>
-  <si>
-    <t>runic</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="10"/>
@@ -746,25 +593,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IT67"/>
+  <dimension ref="A1:GU67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="BV1" sqref="BV1:BV65536"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="8" width="9.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
-    <col min="10" max="85" width="9.109375" style="1" customWidth="1"/>
-    <col min="86" max="86" width="13.88671875" style="1" customWidth="1"/>
-    <col min="87" max="254" width="9.109375" style="1" customWidth="1"/>
-    <col min="255" max="256" width="9.109375" customWidth="1"/>
+    <col min="10" max="34" width="9.109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13.88671875" style="1" customWidth="1"/>
+    <col min="36" max="203" width="9.109375" style="1" customWidth="1"/>
+    <col min="204" max="205" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,214 +679,61 @@
         <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CM1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:40">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1100,62 +794,62 @@
       <c r="V2" s="1">
         <v>25</v>
       </c>
-      <c r="BV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="1" t="s">
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="1">
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:40">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1216,62 +910,62 @@
       <c r="V3" s="1">
         <v>25</v>
       </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1" t="s">
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="1">
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:40">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1332,62 +1026,62 @@
       <c r="V4" s="1">
         <v>25</v>
       </c>
-      <c r="BV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="1" t="s">
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="1">
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:40">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1448,62 +1142,62 @@
       <c r="V5" s="1">
         <v>25</v>
       </c>
-      <c r="BV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="1" t="s">
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="1">
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:40">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1564,62 +1258,62 @@
       <c r="V6" s="1">
         <v>25</v>
       </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="1" t="s">
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="1">
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:40">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1680,62 +1374,62 @@
       <c r="V7" s="1">
         <v>25</v>
       </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="1" t="s">
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="1">
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:40">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1796,62 +1490,62 @@
       <c r="V8" s="1">
         <v>25</v>
       </c>
-      <c r="BV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="1" t="s">
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="1">
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:40">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1912,62 +1606,62 @@
       <c r="V9" s="1">
         <v>25</v>
       </c>
-      <c r="BV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="1" t="s">
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="1">
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:40">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2028,62 +1722,62 @@
       <c r="V10" s="1">
         <v>25</v>
       </c>
-      <c r="BV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="1" t="s">
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="1">
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:40">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2144,62 +1838,62 @@
       <c r="V11" s="1">
         <v>25</v>
       </c>
-      <c r="BV11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="1" t="s">
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="1">
+      <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:40">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2260,62 +1954,62 @@
       <c r="V12" s="1">
         <v>25</v>
       </c>
-      <c r="BV12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="1" t="s">
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM12" s="1">
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:40">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2376,62 +2070,62 @@
       <c r="V13" s="1">
         <v>25</v>
       </c>
-      <c r="BV13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH13" s="1" t="s">
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM13" s="1">
+      <c r="AJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:40">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2492,62 +2186,62 @@
       <c r="V14" s="1">
         <v>25</v>
       </c>
-      <c r="BV14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH14" s="1" t="s">
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM14" s="1">
+      <c r="AJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:40">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2608,62 +2302,62 @@
       <c r="V15" s="1">
         <v>25</v>
       </c>
-      <c r="BV15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH15" s="1" t="s">
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM15" s="1">
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:91">
+    <row r="16" spans="1:40">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2724,62 +2418,62 @@
       <c r="V16" s="1">
         <v>25</v>
       </c>
-      <c r="BV16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH16" s="1" t="s">
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM16" s="1">
+      <c r="AJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:91">
+    <row r="17" spans="1:40">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2840,62 +2534,62 @@
       <c r="V17" s="1">
         <v>25</v>
       </c>
-      <c r="BV17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH17" s="1" t="s">
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM17" s="1">
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:91">
+    <row r="18" spans="1:40">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2953,62 +2647,62 @@
       <c r="V18" s="1">
         <v>25</v>
       </c>
-      <c r="BV18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH18" s="1" t="s">
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI18" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL18" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM18" s="1">
+      <c r="AJ18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:91">
+    <row r="19" spans="1:40">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3066,62 +2760,62 @@
       <c r="V19" s="1">
         <v>25</v>
       </c>
-      <c r="BV19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH19" s="1" t="s">
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI19" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM19" s="1">
+      <c r="AJ19" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:91">
+    <row r="20" spans="1:40">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3179,62 +2873,62 @@
       <c r="V20" s="1">
         <v>25</v>
       </c>
-      <c r="BV20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH20" s="1" t="s">
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI20" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM20" s="1">
+      <c r="AJ20" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:91">
+    <row r="21" spans="1:40">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3292,62 +2986,62 @@
       <c r="V21" s="1">
         <v>25</v>
       </c>
-      <c r="BV21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH21" s="1" t="s">
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI21" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM21" s="1">
+      <c r="AJ21" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:91">
+    <row r="22" spans="1:40">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3405,62 +3099,62 @@
       <c r="V22" s="1">
         <v>25</v>
       </c>
-      <c r="BV22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH22" s="1" t="s">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI22" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM22" s="1">
+      <c r="AJ22" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:91">
+    <row r="23" spans="1:40">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3518,62 +3212,62 @@
       <c r="V23" s="1">
         <v>25</v>
       </c>
-      <c r="BV23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH23" s="1" t="s">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI23" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM23" s="1">
+      <c r="AJ23" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:91">
+    <row r="24" spans="1:40">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3631,62 +3325,62 @@
       <c r="V24" s="1">
         <v>25</v>
       </c>
-      <c r="BV24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH24" s="1" t="s">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI24" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM24" s="1">
+      <c r="AJ24" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:91">
+    <row r="25" spans="1:40">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3744,62 +3438,62 @@
       <c r="V25" s="1">
         <v>25</v>
       </c>
-      <c r="BV25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH25" s="1" t="s">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI25" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM25" s="1">
+      <c r="AJ25" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:91">
+    <row r="26" spans="1:40">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3857,62 +3551,62 @@
       <c r="V26" s="1">
         <v>25</v>
       </c>
-      <c r="BV26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH26" s="1" t="s">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI26" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM26" s="1">
+      <c r="AJ26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91">
+    <row r="27" spans="1:40">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3970,62 +3664,62 @@
       <c r="V27" s="1">
         <v>25</v>
       </c>
-      <c r="BV27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH27" s="1" t="s">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI27" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM27" s="1">
+      <c r="AJ27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:91">
+    <row r="28" spans="1:40">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4083,62 +3777,62 @@
       <c r="V28" s="1">
         <v>25</v>
       </c>
-      <c r="BV28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH28" s="1" t="s">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI28" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM28" s="1">
+      <c r="AJ28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:91">
+    <row r="29" spans="1:40">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4196,62 +3890,62 @@
       <c r="V29" s="1">
         <v>25</v>
       </c>
-      <c r="BV29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH29" s="1" t="s">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI29" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM29" s="1">
+      <c r="AJ29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91">
+    <row r="30" spans="1:40">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4309,62 +4003,62 @@
       <c r="V30" s="1">
         <v>25</v>
       </c>
-      <c r="BV30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH30" s="1" t="s">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI30" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL30" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM30" s="1">
+      <c r="AJ30" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:91">
+    <row r="31" spans="1:40">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4422,62 +4116,62 @@
       <c r="V31" s="1">
         <v>25</v>
       </c>
-      <c r="BV31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH31" s="1" t="s">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI31" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL31" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM31" s="1">
+      <c r="AJ31" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:91">
+    <row r="32" spans="1:40">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4535,62 +4229,62 @@
       <c r="V32" s="1">
         <v>25</v>
       </c>
-      <c r="BV32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH32" s="1" t="s">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI32" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL32" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM32" s="1">
+      <c r="AJ32" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:91">
+    <row r="33" spans="1:40">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4648,62 +4342,62 @@
       <c r="V33" s="1">
         <v>25</v>
       </c>
-      <c r="BV33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH33" s="1" t="s">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI33" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL33" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM33" s="1">
+      <c r="AJ33" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:91">
+    <row r="34" spans="1:40">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4764,62 +4458,62 @@
       <c r="V34" s="1">
         <v>25</v>
       </c>
-      <c r="BV34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH34" s="1" t="s">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ34" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM34" s="1">
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:91">
+    <row r="35" spans="1:40">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4880,62 +4574,62 @@
       <c r="V35" s="1">
         <v>25</v>
       </c>
-      <c r="BV35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH35" s="1" t="s">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ35" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM35" s="1">
+      <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:91">
+    <row r="36" spans="1:40">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4996,62 +4690,62 @@
       <c r="V36" s="1">
         <v>25</v>
       </c>
-      <c r="BV36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH36" s="1" t="s">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ36" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM36" s="1">
+      <c r="AJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:91">
+    <row r="37" spans="1:40">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5112,62 +4806,62 @@
       <c r="V37" s="1">
         <v>25</v>
       </c>
-      <c r="BV37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH37" s="1" t="s">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ37" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL37" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM37" s="1">
+      <c r="AJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:91">
+    <row r="38" spans="1:40">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5228,62 +4922,62 @@
       <c r="V38" s="1">
         <v>25</v>
       </c>
-      <c r="BV38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH38" s="1" t="s">
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ38" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL38" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM38" s="1">
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:91">
+    <row r="39" spans="1:40">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5344,62 +5038,62 @@
       <c r="V39" s="1">
         <v>25</v>
       </c>
-      <c r="BV39" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW39" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX39" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY39" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH39" s="1" t="s">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ39" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL39" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM39" s="1">
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:91">
+    <row r="40" spans="1:40">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5460,62 +5154,62 @@
       <c r="V40" s="1">
         <v>25</v>
       </c>
-      <c r="BV40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH40" s="1" t="s">
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ40" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL40" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM40" s="1">
+      <c r="AJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:91">
+    <row r="41" spans="1:40">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5576,62 +5270,62 @@
       <c r="V41" s="1">
         <v>25</v>
       </c>
-      <c r="BV41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH41" s="1" t="s">
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ41" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL41" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM41" s="1">
+      <c r="AJ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:91">
+    <row r="42" spans="1:40">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5692,62 +5386,62 @@
       <c r="V42" s="1">
         <v>25</v>
       </c>
-      <c r="BV42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH42" s="1" t="s">
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ42" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM42" s="1">
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:91">
+    <row r="43" spans="1:40">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5808,62 +5502,62 @@
       <c r="V43" s="1">
         <v>25</v>
       </c>
-      <c r="BV43" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW43" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX43" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY43" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH43" s="1" t="s">
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ43" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL43" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM43" s="1">
+      <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:91">
+    <row r="44" spans="1:40">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5924,62 +5618,62 @@
       <c r="V44" s="1">
         <v>25</v>
       </c>
-      <c r="BV44" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW44" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX44" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY44" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH44" s="1" t="s">
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ44" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL44" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM44" s="1">
+      <c r="AJ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:91">
+    <row r="45" spans="1:40">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6040,62 +5734,62 @@
       <c r="V45" s="1">
         <v>25</v>
       </c>
-      <c r="BV45" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW45" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX45" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY45" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH45" s="1" t="s">
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ45" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL45" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM45" s="1">
+      <c r="AJ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:91">
+    <row r="46" spans="1:40">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6156,62 +5850,62 @@
       <c r="V46" s="1">
         <v>25</v>
       </c>
-      <c r="BV46" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW46" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX46" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY46" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH46" s="1" t="s">
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ46" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL46" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM46" s="1">
+      <c r="AJ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:91">
+    <row r="47" spans="1:40">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6272,62 +5966,62 @@
       <c r="V47" s="1">
         <v>25</v>
       </c>
-      <c r="BV47" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW47" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX47" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY47" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH47" s="1" t="s">
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ47" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL47" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM47" s="1">
+      <c r="AJ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:91">
+    <row r="48" spans="1:40">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6388,62 +6082,62 @@
       <c r="V48" s="1">
         <v>25</v>
       </c>
-      <c r="BV48" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW48" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX48" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY48" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH48" s="1" t="s">
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ48" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL48" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM48" s="1">
+      <c r="AJ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:91">
+    <row r="49" spans="1:40">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6504,62 +6198,62 @@
       <c r="V49" s="1">
         <v>25</v>
       </c>
-      <c r="BV49" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW49" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX49" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY49" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH49" s="1" t="s">
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ49" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL49" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM49" s="1">
+      <c r="AJ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:91">
+    <row r="50" spans="1:40">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6620,62 +6314,62 @@
       <c r="V50" s="1">
         <v>25</v>
       </c>
-      <c r="BV50" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW50" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX50" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY50" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH50" s="1" t="s">
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK50" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL50" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM50" s="1">
+      <c r="AJ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:91">
+    <row r="51" spans="1:40">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6736,62 +6430,62 @@
       <c r="V51" s="1">
         <v>25</v>
       </c>
-      <c r="BV51" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW51" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX51" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY51" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH51" s="1" t="s">
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK51" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL51" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM51" s="1">
+      <c r="AJ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:91">
+    <row r="52" spans="1:40">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6852,62 +6546,62 @@
       <c r="V52" s="1">
         <v>25</v>
       </c>
-      <c r="BV52" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW52" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX52" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY52" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH52" s="1" t="s">
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK52" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL52" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM52" s="1">
+      <c r="AJ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:91">
+    <row r="53" spans="1:40">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6968,62 +6662,62 @@
       <c r="V53" s="1">
         <v>25</v>
       </c>
-      <c r="BV53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH53" s="1" t="s">
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK53" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM53" s="1">
+      <c r="AJ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:91">
+    <row r="54" spans="1:40">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7084,62 +6778,62 @@
       <c r="V54" s="1">
         <v>25</v>
       </c>
-      <c r="BV54" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW54" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX54" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY54" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH54" s="1" t="s">
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK54" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL54" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM54" s="1">
+      <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:91">
+    <row r="55" spans="1:40">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7200,62 +6894,62 @@
       <c r="V55" s="1">
         <v>25</v>
       </c>
-      <c r="BV55" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW55" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX55" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY55" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH55" s="1" t="s">
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK55" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL55" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM55" s="1">
+      <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91">
+    <row r="56" spans="1:40">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7316,62 +7010,62 @@
       <c r="V56" s="1">
         <v>25</v>
       </c>
-      <c r="BV56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH56" s="1" t="s">
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK56" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM56" s="1">
+      <c r="AJ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:91">
+    <row r="57" spans="1:40">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7432,62 +7126,62 @@
       <c r="V57" s="1">
         <v>25</v>
       </c>
-      <c r="BV57" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW57" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX57" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY57" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH57" s="1" t="s">
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK57" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL57" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM57" s="1">
+      <c r="AJ57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:91">
+    <row r="58" spans="1:40">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7548,62 +7242,62 @@
       <c r="V58" s="1">
         <v>25</v>
       </c>
-      <c r="BV58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH58" s="1" t="s">
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK58" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM58" s="1">
+      <c r="AJ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:91">
+    <row r="59" spans="1:40">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7664,62 +7358,62 @@
       <c r="V59" s="1">
         <v>25</v>
       </c>
-      <c r="BV59" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW59" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX59" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY59" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH59" s="1" t="s">
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK59" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL59" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM59" s="1">
+      <c r="AJ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:91">
+    <row r="60" spans="1:40">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7780,62 +7474,62 @@
       <c r="V60" s="1">
         <v>25</v>
       </c>
-      <c r="BV60" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW60" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX60" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY60" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH60" s="1" t="s">
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK60" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL60" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM60" s="1">
+      <c r="AJ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:91">
+    <row r="61" spans="1:40">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7896,62 +7590,62 @@
       <c r="V61" s="1">
         <v>25</v>
       </c>
-      <c r="BV61" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW61" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX61" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY61" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH61" s="1" t="s">
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK61" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL61" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM61" s="1">
+      <c r="AJ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91">
+    <row r="62" spans="1:40">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8012,62 +7706,62 @@
       <c r="V62" s="1">
         <v>25</v>
       </c>
-      <c r="BV62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH62" s="1" t="s">
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK62" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL62" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM62" s="1">
+      <c r="AJ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:91">
+    <row r="63" spans="1:40">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8128,62 +7822,62 @@
       <c r="V63" s="1">
         <v>25</v>
       </c>
-      <c r="BV63" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW63" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX63" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY63" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH63" s="1" t="s">
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK63" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL63" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM63" s="1">
+      <c r="AJ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:91">
+    <row r="64" spans="1:40">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8244,62 +7938,62 @@
       <c r="V64" s="1">
         <v>25</v>
       </c>
-      <c r="BV64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH64" s="1" t="s">
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK64" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL64" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM64" s="1">
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:91">
+    <row r="65" spans="1:40">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8360,62 +8054,62 @@
       <c r="V65" s="1">
         <v>25</v>
       </c>
-      <c r="BV65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH65" s="1" t="s">
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK65" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL65" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM65" s="1">
+      <c r="AJ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:91">
+    <row r="66" spans="1:40">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8476,62 +8170,62 @@
       <c r="V66" s="1">
         <v>25</v>
       </c>
-      <c r="BV66" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW66" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX66" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY66" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH66" s="1" t="s">
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CI66" s="1">
-        <v>25</v>
-      </c>
-      <c r="CJ66" s="1">
-        <v>25</v>
-      </c>
-      <c r="CK66" s="1">
-        <v>25</v>
-      </c>
-      <c r="CL66" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM66" s="1">
+      <c r="AJ66" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:91">
+    <row r="67" spans="1:40">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8592,58 +8286,58 @@
       <c r="V67" s="1">
         <v>40</v>
       </c>
-      <c r="BV67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH67" s="1" t="s">
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="CI67" s="1">
+      <c r="AJ67" s="1">
         <v>34</v>
       </c>
-      <c r="CJ67" s="1">
+      <c r="AK67" s="1">
         <v>0.4</v>
       </c>
-      <c r="CK67" s="1">
+      <c r="AL67" s="1">
         <v>24</v>
       </c>
-      <c r="CL67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM67" s="1">
+      <c r="AM67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="1">
         <v>-90</v>
       </c>
     </row>
